--- a/PostgreSQL学习/5.必知必会的窗口函数二_课后习题/必知必会的窗口函数二_课后习题.xlsx
+++ b/PostgreSQL学习/5.必知必会的窗口函数二_课后习题/必知必会的窗口函数二_课后习题.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+  <si>
+    <t>server</t>
+  </si>
   <si>
     <t>sample_date</t>
   </si>
@@ -24,22 +27,13 @@
     <t>load_val</t>
   </si>
   <si>
-    <t>cur_date</t>
+    <t>A</t>
   </si>
   <si>
-    <t>cur_load</t>
+    <t>B</t>
   </si>
   <si>
-    <t>laster_date</t>
-  </si>
-  <si>
-    <t>laster_load</t>
-  </si>
-  <si>
-    <t>day1_date</t>
-  </si>
-  <si>
-    <t>load_day1_before</t>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -662,21 +656,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -989,13 +980,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.8703703703704" customWidth="1"/>
     <col min="2" max="2" width="13.962962962963" customWidth="1"/>
@@ -1003,228 +994,183 @@
     <col min="4" max="4" width="18.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>43497</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="3">
+        <v>43132</v>
+      </c>
+      <c r="C2" s="2">
         <v>1024</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>43498</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="3">
+        <v>43133</v>
+      </c>
+      <c r="C3" s="2">
         <v>2366</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>43501</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="3">
+        <v>43136</v>
+      </c>
+      <c r="C4" s="2">
         <v>2366</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>43503</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B5" s="3">
+        <v>43138</v>
+      </c>
+      <c r="C5" s="2">
         <v>985</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>43504</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="3">
+        <v>43139</v>
+      </c>
+      <c r="C6" s="2">
         <v>780</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
-        <v>43508</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B7" s="3">
+        <v>43143</v>
+      </c>
+      <c r="C7" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" ht="22" customHeight="1" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="B8" s="3">
+        <v>43132</v>
+      </c>
+      <c r="C8" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43133</v>
+      </c>
+      <c r="C9" s="2">
+        <v>39008</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43134</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43135</v>
+      </c>
+      <c r="C11" s="2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43136</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43137</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
-        <v>43497</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>43498</v>
-      </c>
       <c r="B14" s="3">
-        <v>2366</v>
+        <v>43132</v>
       </c>
       <c r="C14" s="2">
-        <v>43497</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
-        <v>43501</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B15" s="3">
-        <v>2366</v>
+        <v>43138</v>
       </c>
       <c r="C15" s="2">
-        <v>43498</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
-        <v>43503</v>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B16" s="3">
-        <v>985</v>
+        <v>43147</v>
       </c>
       <c r="C16" s="2">
-        <v>43501</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
-        <v>43504</v>
-      </c>
-      <c r="B17" s="3">
-        <v>780</v>
-      </c>
-      <c r="C17" s="2">
-        <v>43503</v>
-      </c>
-      <c r="D17" s="3">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
-        <v>43508</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C18" s="2">
-        <v>43504</v>
-      </c>
-      <c r="D18" s="3">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="23" ht="22" customHeight="1" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4">
-        <v>43497</v>
-      </c>
-      <c r="B24">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
-        <v>43498</v>
-      </c>
-      <c r="B25">
-        <v>2366</v>
-      </c>
-      <c r="C25" s="4">
-        <v>43497</v>
-      </c>
-      <c r="D25">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4">
-        <v>43501</v>
-      </c>
-      <c r="B26">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4">
-        <v>43503</v>
-      </c>
-      <c r="B27">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4">
-        <v>43504</v>
-      </c>
-      <c r="B28">
-        <v>780</v>
-      </c>
-      <c r="C28" s="4">
-        <v>43503</v>
-      </c>
-      <c r="D28">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4">
-        <v>43508</v>
-      </c>
-      <c r="B29">
-        <v>1000</v>
-      </c>
-    </row>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" ht="22" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
